--- a/Practica_4.2/Demodulacion de Emisoras FM.xlsx
+++ b/Practica_4.2/Demodulacion de Emisoras FM.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="20">
   <si>
     <t xml:space="preserve">Nombre emisora</t>
   </si>
@@ -63,7 +63,7 @@
     <t xml:space="preserve">90.7 MHz</t>
   </si>
   <si>
-    <t xml:space="preserve">114 KHZ</t>
+    <t xml:space="preserve">114 Khz</t>
   </si>
   <si>
     <t xml:space="preserve">SI</t>
@@ -73,6 +73,18 @@
   </si>
   <si>
     <t xml:space="preserve">COMERCIAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EMISORA DE INTERÉS PÚBLICO EN BUCARAMANGA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">91.7 MHz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">181 Khz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INTERÉS PÚBLICO </t>
   </si>
 </sst>
 </file>
@@ -82,7 +94,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -118,6 +130,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -169,7 +187,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -183,6 +201,14 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -203,15 +229,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>360</xdr:colOff>
+      <xdr:colOff>720</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>360</xdr:rowOff>
+      <xdr:rowOff>720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>25560</xdr:colOff>
+      <xdr:colOff>26280</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>57600</xdr:rowOff>
+      <xdr:rowOff>57960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -224,8 +250,45 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8681760" y="1176120"/>
+          <a:off x="9215640" y="1176480"/>
           <a:ext cx="5083920" cy="2757960"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>360</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>4979880</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>2701440</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1" name="Imagen 2" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9215280" y="3876840"/>
+          <a:ext cx="4979520" cy="2701080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -248,15 +311,15 @@
   <dimension ref="A2:J13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.640625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="14.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="18.58"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="2" style="1" width="12.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="14.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="18.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="21.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="71.69"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="11" style="1" width="12.63"/>
   </cols>
@@ -323,7 +386,33 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="212.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B4" s="3"/>
+      <c r="A4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="212.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B5" s="3"/>

--- a/Practica_4.2/Demodulacion de Emisoras FM.xlsx
+++ b/Practica_4.2/Demodulacion de Emisoras FM.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="26">
   <si>
     <t xml:space="preserve">Nombre emisora</t>
   </si>
@@ -85,6 +85,24 @@
   </si>
   <si>
     <t xml:space="preserve">INTERÉS PÚBLICO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">COLOMBIA ESTEREO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">92.9 MHz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">132 Khz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EMISORA COMUNITARIA LA BRUJULA - ÁREA DE SERVICIO No.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">93.4 MHz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COMUNITARIA</t>
   </si>
 </sst>
 </file>
@@ -300,6 +318,80 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>4980600</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>2701080</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 3" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId3"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9214920" y="6577200"/>
+          <a:ext cx="4980600" cy="2701080"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>4980600</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>2701080</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagen 4" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId4"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9214920" y="9277920"/>
+          <a:ext cx="4980600" cy="2701080"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -310,8 +402,8 @@
   </sheetPr>
   <dimension ref="A2:J13"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H6" activeCellId="0" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.640625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -415,12 +507,55 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="212.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B5" s="3"/>
+      <c r="A5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="212.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B6" s="3"/>
+      <c r="A6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="I6" s="1" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="212.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">

--- a/Practica_4.2/Demodulacion de Emisoras FM.xlsx
+++ b/Practica_4.2/Demodulacion de Emisoras FM.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="35">
   <si>
     <t xml:space="preserve">Nombre emisora</t>
   </si>
@@ -102,7 +102,34 @@
     <t xml:space="preserve">93.4 MHz</t>
   </si>
   <si>
+    <t xml:space="preserve">120 Khz</t>
+  </si>
+  <si>
     <t xml:space="preserve">COMUNITARIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TROPICANA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">95.7 MHz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Si</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SANTO TOMAS ESTEREO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">96.2 MHz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">186 Khz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LA FM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">99.7 KHZ</t>
   </si>
 </sst>
 </file>
@@ -112,7 +139,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -149,12 +176,6 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -205,7 +226,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -222,12 +243,8 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -253,9 +270,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>26280</xdr:colOff>
+      <xdr:colOff>25560</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>57960</xdr:rowOff>
+      <xdr:rowOff>57240</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -268,8 +285,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9215640" y="1176480"/>
-          <a:ext cx="5083920" cy="2757960"/>
+          <a:off x="9217080" y="1176480"/>
+          <a:ext cx="5083200" cy="2757240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -290,9 +307,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>4979880</xdr:colOff>
+      <xdr:colOff>4979160</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>2701440</xdr:rowOff>
+      <xdr:rowOff>2700720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -305,8 +322,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9215280" y="3876840"/>
-          <a:ext cx="4979520" cy="2701080"/>
+          <a:off x="9216720" y="3876840"/>
+          <a:ext cx="4978800" cy="2700360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -327,9 +344,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>4980600</xdr:colOff>
+      <xdr:colOff>4979880</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>2701080</xdr:rowOff>
+      <xdr:rowOff>2700360</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -342,8 +359,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9214920" y="6577200"/>
-          <a:ext cx="4980600" cy="2701080"/>
+          <a:off x="9216360" y="6577200"/>
+          <a:ext cx="4979880" cy="2700360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -364,9 +381,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>4980600</xdr:colOff>
+      <xdr:colOff>4979880</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>2701080</xdr:rowOff>
+      <xdr:rowOff>2700360</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -379,8 +396,119 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9214920" y="9277920"/>
-          <a:ext cx="4980600" cy="2701080"/>
+          <a:off x="9216360" y="9277920"/>
+          <a:ext cx="4979880" cy="2700360"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>4977360</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>2700360</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Imagen 5" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId5"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9216360" y="11978640"/>
+          <a:ext cx="4977360" cy="2700360"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1517040</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>2682000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>5052960</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>24120</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Imagen 6" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId6"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9212400" y="14660640"/>
+          <a:ext cx="5056920" cy="2743200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>102600</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>30240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>4949280</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>2659680</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Imagen 7" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId7"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9318960" y="17409960"/>
+          <a:ext cx="4846680" cy="2629440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -402,8 +530,8 @@
   </sheetPr>
   <dimension ref="A2:J13"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H6" activeCellId="0" sqref="H6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M9" activeCellId="0" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.640625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -411,7 +539,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="18.58"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="2" style="1" width="12.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="14.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="21.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="21.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="71.69"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="11" style="1" width="12.63"/>
   </cols>
@@ -502,7 +630,7 @@
       <c r="H4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="I4" s="3" t="s">
         <v>19</v>
       </c>
     </row>
@@ -542,30 +670,114 @@
       <c r="B6" s="3" t="s">
         <v>24</v>
       </c>
+      <c r="C6" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="D6" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="I6" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="212.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="212.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B7" s="3"/>
+      <c r="D7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="212.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B8" s="3"/>
+      <c r="A8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="212.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B9" s="3"/>
+      <c r="A9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="212.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B10" s="3"/>

--- a/Practica_4.2/Demodulacion de Emisoras FM.xlsx
+++ b/Practica_4.2/Demodulacion de Emisoras FM.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="54">
   <si>
     <t xml:space="preserve">Nombre emisora</t>
   </si>
@@ -129,7 +129,64 @@
     <t xml:space="preserve">LA FM</t>
   </si>
   <si>
-    <t xml:space="preserve">99.7 KHZ</t>
+    <t xml:space="preserve">99.7 MHZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RADIO CAPITAL LTDA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">99,2 MHz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RADIONICA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">92.3 MHz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">218 Khz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LA U RADIO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">107,7 MHz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">195 Khz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RADIO UNO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">106,7 MHz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">443 Khz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BESAME RADIO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">104,7 MHz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">98 Khz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LA MEGA ESTEREO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">102.5 MHz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">188 Khz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EMISORA INTERES PUBLICO BUCARAMANGA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100,7 MHz</t>
   </si>
 </sst>
 </file>
@@ -226,7 +283,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -247,6 +304,10 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -264,9 +325,9 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>720</xdr:colOff>
+      <xdr:colOff>1080</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>720</xdr:rowOff>
+      <xdr:rowOff>1080</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
@@ -285,8 +346,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9217080" y="1176480"/>
-          <a:ext cx="5083200" cy="2757240"/>
+          <a:off x="9217800" y="1176840"/>
+          <a:ext cx="5082840" cy="2756880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -301,9 +362,9 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>360</xdr:colOff>
+      <xdr:colOff>720</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>360</xdr:rowOff>
+      <xdr:rowOff>720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
@@ -322,8 +383,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9216720" y="3876840"/>
-          <a:ext cx="4978800" cy="2700360"/>
+          <a:off x="9217440" y="3877200"/>
+          <a:ext cx="4978440" cy="2700000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -338,7 +399,7 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>360</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
@@ -346,7 +407,7 @@
       <xdr:col>9</xdr:col>
       <xdr:colOff>4979880</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>2700360</xdr:rowOff>
+      <xdr:rowOff>2700000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -359,8 +420,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9216360" y="6577200"/>
-          <a:ext cx="4979880" cy="2700360"/>
+          <a:off x="9217080" y="6577200"/>
+          <a:ext cx="4979520" cy="2700000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -375,7 +436,7 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>360</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
@@ -383,7 +444,7 @@
       <xdr:col>9</xdr:col>
       <xdr:colOff>4979880</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>2700360</xdr:rowOff>
+      <xdr:rowOff>2700000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -396,8 +457,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9216360" y="9277920"/>
-          <a:ext cx="4979880" cy="2700360"/>
+          <a:off x="9217080" y="9277920"/>
+          <a:ext cx="4979520" cy="2700000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -412,7 +473,7 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>360</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
@@ -420,7 +481,7 @@
       <xdr:col>9</xdr:col>
       <xdr:colOff>4977360</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>2700360</xdr:rowOff>
+      <xdr:rowOff>2700000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -433,8 +494,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9216360" y="11978640"/>
-          <a:ext cx="4977360" cy="2700360"/>
+          <a:off x="9217080" y="11978640"/>
+          <a:ext cx="4977000" cy="2700000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -449,7 +510,7 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>1517040</xdr:colOff>
+      <xdr:colOff>1517400</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>2682000</xdr:rowOff>
     </xdr:from>
@@ -457,7 +518,7 @@
       <xdr:col>9</xdr:col>
       <xdr:colOff>5052960</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>24120</xdr:rowOff>
+      <xdr:rowOff>23760</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -470,8 +531,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9212400" y="14660640"/>
-          <a:ext cx="5056920" cy="2743200"/>
+          <a:off x="9212760" y="14660640"/>
+          <a:ext cx="5056920" cy="2742840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -486,9 +547,9 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>102600</xdr:colOff>
+      <xdr:colOff>102960</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>30240</xdr:rowOff>
+      <xdr:rowOff>30600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
@@ -507,8 +568,267 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9318960" y="17409960"/>
-          <a:ext cx="4846680" cy="2629440"/>
+          <a:off x="9319680" y="17410320"/>
+          <a:ext cx="4846320" cy="2629080"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>360</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>4979160</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>2701080</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Imagen 8" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId8"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9217080" y="20080440"/>
+          <a:ext cx="4978800" cy="2701080"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>360</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>4979160</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>2701080</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Imagen 9" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId9"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9217080" y="22781160"/>
+          <a:ext cx="4978800" cy="2701080"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>360</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>4978440</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>2700720</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Imagen 10" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId10"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9217080" y="25481880"/>
+          <a:ext cx="4978080" cy="2700720"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>360</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>4979160</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>2701440</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Imagen 11" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId11"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9217080" y="28182600"/>
+          <a:ext cx="4978800" cy="2701080"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>360</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>5059080</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>2744640</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Imagen 12" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId12"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9217080" y="30883320"/>
+          <a:ext cx="5058720" cy="2744280"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>360</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>5050080</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>2108880</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Imagen 13" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId13"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9217080" y="33631560"/>
+          <a:ext cx="5049720" cy="2108520"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>360</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>5058720</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>2216160</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Imagen 14" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId14"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9217080" y="35739720"/>
+          <a:ext cx="5058360" cy="2215800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -528,10 +848,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:J13"/>
+  <dimension ref="A2:J16"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M9" activeCellId="0" sqref="M9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H20" activeCellId="0" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.640625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -780,16 +1100,204 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="212.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B10" s="3"/>
+      <c r="A10" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="212.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B11" s="3"/>
+      <c r="A11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="212.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B12" s="3"/>
+      <c r="A12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="212.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B13" s="3"/>
+      <c r="A13" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="216.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="166" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="180" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
